--- a/data/Characteristics/AVERAGE/AVERAGE_Economics.xlsx
+++ b/data/Characteristics/AVERAGE/AVERAGE_Economics.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ember-interface-try\data\Characteristics\AVERAGE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B310E7-E918-4CFE-AC64-8F1901486CD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="4410" yWindow="1725" windowWidth="21675" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,79 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>Learners</t>
+  </si>
+  <si>
+    <t>Competent</t>
+  </si>
+  <si>
+    <t>Abstract semantic verbs</t>
+  </si>
+  <si>
+    <t>Archaisms</t>
+  </si>
+  <si>
+    <t>Complex conjunctions</t>
+  </si>
+  <si>
+    <t>Desemantisized verbs</t>
+  </si>
+  <si>
+    <t>Future</t>
+  </si>
+  <si>
+    <t>IPronoun</t>
+  </si>
+  <si>
+    <t>Intensifying adverbs</t>
+  </si>
+  <si>
+    <t>Logic connectors</t>
+  </si>
+  <si>
+    <t>Noun</t>
+  </si>
+  <si>
+    <t>OrSuffix</t>
+  </si>
+  <si>
+    <t>PassiveVoice</t>
+  </si>
+  <si>
+    <t>Past</t>
+  </si>
+  <si>
+    <t>PersonalPronoun</t>
+  </si>
+  <si>
+    <t>Prepositive attributes</t>
+  </si>
+  <si>
+    <t>Postpositive attributes</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>ThatThose</t>
+  </si>
+  <si>
+    <t>WePronoun</t>
+  </si>
+  <si>
+    <t>YouHeShe</t>
+  </si>
+  <si>
+    <t>Маркер</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +407,239 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>3.4809100000000003E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.189773</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1.27E-4</v>
+      </c>
+      <c r="C3">
+        <v>3.6400000000000001E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>4.3449999999999999E-3</v>
+      </c>
+      <c r="C4">
+        <v>1.6272999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>2.2259999999999999E-2</v>
+      </c>
+      <c r="C5">
+        <v>0.123727</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1.245E-3</v>
+      </c>
+      <c r="C6">
+        <v>3.5227000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>5.3600000000000002E-4</v>
+      </c>
+      <c r="C7">
+        <v>1.3636000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>1.0449999999999999E-3</v>
+      </c>
+      <c r="C8">
+        <v>4.5450000000000004E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C9">
+        <v>1.7273E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0.415545</v>
+      </c>
+      <c r="C10">
+        <v>0.87265800000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>4.7910000000000001E-3</v>
+      </c>
+      <c r="C11">
+        <v>1.6409E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>1.1809E-2</v>
+      </c>
+      <c r="C12">
+        <v>8.6863999999999997E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>1.1682E-2</v>
+      </c>
+      <c r="C13">
+        <v>5.4182000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>1.3163599999999999E-2</v>
+      </c>
+      <c r="C14">
+        <v>5.9864000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>0.19906399999999999</v>
+      </c>
+      <c r="C15">
+        <v>0.71963600000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>7.8891000000000003E-2</v>
+      </c>
+      <c r="C16">
+        <v>0.34759099999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>5.5500000000000001E-2</v>
+      </c>
+      <c r="C17">
+        <v>0.277727</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>2.0900000000000001E-4</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>7.8180000000000003E-3</v>
+      </c>
+      <c r="C19">
+        <v>1.0545000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>1.0900000000000001E-4</v>
+      </c>
+      <c r="C20">
+        <v>1.9550000000000001E-3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>